--- a/AutoSorting/lang/SHTranslate.xlsx
+++ b/AutoSorting/lang/SHTranslate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Mod Development\DayZ-AutoSort-Mod\AutoSort_Development\lang\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DayZ\Script Dev\Mod Development\DayZ-AutoSort-Mod\AutoSorting\lang\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47B76B2D-F02E-4512-9D56-B6A7B6463BBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B4EA491-90B2-4E51-BDD3-406235ECFBB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23880" yWindow="3510" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23490" yWindow="3150" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="71">
   <si>
     <t>string</t>
   </si>
@@ -160,6 +160,84 @@
   </si>
   <si>
     <t>Fahrzeugteile</t>
+  </si>
+  <si>
+    <t>danish</t>
+  </si>
+  <si>
+    <t>Verser</t>
+  </si>
+  <si>
+    <t>Tout déposer</t>
+  </si>
+  <si>
+    <t>Munitions</t>
+  </si>
+  <si>
+    <t>Armes</t>
+  </si>
+  <si>
+    <t>Médical</t>
+  </si>
+  <si>
+    <t>Mêlée</t>
+  </si>
+  <si>
+    <t>Consommables</t>
+  </si>
+  <si>
+    <t>Tenue</t>
+  </si>
+  <si>
+    <t>Électrique</t>
+  </si>
+  <si>
+    <t>Outils</t>
+  </si>
+  <si>
+    <t>Pièces de véhicules</t>
+  </si>
+  <si>
+    <t>Pièces jointes</t>
+  </si>
+  <si>
+    <t>Indsæt</t>
+  </si>
+  <si>
+    <t>Indsæt Alt</t>
+  </si>
+  <si>
+    <t>Tilbehør</t>
+  </si>
+  <si>
+    <t>Ammunition</t>
+  </si>
+  <si>
+    <t>Våben</t>
+  </si>
+  <si>
+    <t>Førstehjælp</t>
+  </si>
+  <si>
+    <t>Håndvåben</t>
+  </si>
+  <si>
+    <t>Forbrugsvare</t>
+  </si>
+  <si>
+    <t>Påklædning</t>
+  </si>
+  <si>
+    <t>Byggematerialer</t>
+  </si>
+  <si>
+    <t>Elektronik</t>
+  </si>
+  <si>
+    <t>Værktøj</t>
+  </si>
+  <si>
+    <t>Reservedele</t>
   </si>
 </sst>
 </file>
@@ -477,10 +555,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -490,7 +568,7 @@
     <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -515,8 +593,11 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -526,8 +607,14 @@
       <c r="C2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -537,8 +624,14 @@
       <c r="C3" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -548,8 +641,14 @@
       <c r="C4" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>57</v>
+      </c>
+      <c r="I4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -559,8 +658,14 @@
       <c r="C5" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>48</v>
+      </c>
+      <c r="I5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -570,8 +675,14 @@
       <c r="C6" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E6" t="s">
+        <v>49</v>
+      </c>
+      <c r="I6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -581,8 +692,14 @@
       <c r="C7" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E7" t="s">
+        <v>50</v>
+      </c>
+      <c r="I7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -592,8 +709,14 @@
       <c r="C8" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E8" t="s">
+        <v>51</v>
+      </c>
+      <c r="I8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -603,8 +726,14 @@
       <c r="C9" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
+        <v>52</v>
+      </c>
+      <c r="I9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -614,8 +743,14 @@
       <c r="C10" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E10" t="s">
+        <v>53</v>
+      </c>
+      <c r="I10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -625,8 +760,14 @@
       <c r="C11" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E11" t="s">
+        <v>29</v>
+      </c>
+      <c r="I11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -636,8 +777,14 @@
       <c r="C12" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E12" t="s">
+        <v>54</v>
+      </c>
+      <c r="I12" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -647,8 +794,14 @@
       <c r="C13" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E13" t="s">
+        <v>55</v>
+      </c>
+      <c r="I13" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -658,8 +811,15 @@
       <c r="C14" t="s">
         <v>44</v>
       </c>
+      <c r="E14" t="s">
+        <v>56</v>
+      </c>
+      <c r="I14" t="s">
+        <v>70</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/AutoSorting/lang/SHTranslate.xlsx
+++ b/AutoSorting/lang/SHTranslate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DayZ\Script Dev\Mod Development\DayZ-AutoSort-Mod\AutoSorting\lang\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Mod Development\DayZ-AutoSort-Mod\AutoSort_Development\lang\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B4EA491-90B2-4E51-BDD3-406235ECFBB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47B76B2D-F02E-4512-9D56-B6A7B6463BBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23490" yWindow="3150" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23880" yWindow="3510" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="45">
   <si>
     <t>string</t>
   </si>
@@ -160,84 +160,6 @@
   </si>
   <si>
     <t>Fahrzeugteile</t>
-  </si>
-  <si>
-    <t>danish</t>
-  </si>
-  <si>
-    <t>Verser</t>
-  </si>
-  <si>
-    <t>Tout déposer</t>
-  </si>
-  <si>
-    <t>Munitions</t>
-  </si>
-  <si>
-    <t>Armes</t>
-  </si>
-  <si>
-    <t>Médical</t>
-  </si>
-  <si>
-    <t>Mêlée</t>
-  </si>
-  <si>
-    <t>Consommables</t>
-  </si>
-  <si>
-    <t>Tenue</t>
-  </si>
-  <si>
-    <t>Électrique</t>
-  </si>
-  <si>
-    <t>Outils</t>
-  </si>
-  <si>
-    <t>Pièces de véhicules</t>
-  </si>
-  <si>
-    <t>Pièces jointes</t>
-  </si>
-  <si>
-    <t>Indsæt</t>
-  </si>
-  <si>
-    <t>Indsæt Alt</t>
-  </si>
-  <si>
-    <t>Tilbehør</t>
-  </si>
-  <si>
-    <t>Ammunition</t>
-  </si>
-  <si>
-    <t>Våben</t>
-  </si>
-  <si>
-    <t>Førstehjælp</t>
-  </si>
-  <si>
-    <t>Håndvåben</t>
-  </si>
-  <si>
-    <t>Forbrugsvare</t>
-  </si>
-  <si>
-    <t>Påklædning</t>
-  </si>
-  <si>
-    <t>Byggematerialer</t>
-  </si>
-  <si>
-    <t>Elektronik</t>
-  </si>
-  <si>
-    <t>Værktøj</t>
-  </si>
-  <si>
-    <t>Reservedele</t>
   </si>
 </sst>
 </file>
@@ -555,10 +477,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -568,7 +490,7 @@
     <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -593,11 +515,8 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -607,14 +526,8 @@
       <c r="C2" t="s">
         <v>33</v>
       </c>
-      <c r="E2" t="s">
-        <v>46</v>
-      </c>
-      <c r="I2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -624,14 +537,8 @@
       <c r="C3" t="s">
         <v>34</v>
       </c>
-      <c r="E3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -641,14 +548,8 @@
       <c r="C4" t="s">
         <v>22</v>
       </c>
-      <c r="E4" t="s">
-        <v>57</v>
-      </c>
-      <c r="I4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -658,14 +559,8 @@
       <c r="C5" t="s">
         <v>35</v>
       </c>
-      <c r="E5" t="s">
-        <v>48</v>
-      </c>
-      <c r="I5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -675,14 +570,8 @@
       <c r="C6" t="s">
         <v>24</v>
       </c>
-      <c r="E6" t="s">
-        <v>49</v>
-      </c>
-      <c r="I6" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -692,14 +581,8 @@
       <c r="C7" t="s">
         <v>36</v>
       </c>
-      <c r="E7" t="s">
-        <v>50</v>
-      </c>
-      <c r="I7" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -709,14 +592,8 @@
       <c r="C8" t="s">
         <v>37</v>
       </c>
-      <c r="E8" t="s">
-        <v>51</v>
-      </c>
-      <c r="I8" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -726,14 +603,8 @@
       <c r="C9" t="s">
         <v>38</v>
       </c>
-      <c r="E9" t="s">
-        <v>52</v>
-      </c>
-      <c r="I9" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -743,14 +614,8 @@
       <c r="C10" t="s">
         <v>39</v>
       </c>
-      <c r="E10" t="s">
-        <v>53</v>
-      </c>
-      <c r="I10" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -760,14 +625,8 @@
       <c r="C11" t="s">
         <v>40</v>
       </c>
-      <c r="E11" t="s">
-        <v>29</v>
-      </c>
-      <c r="I11" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -777,14 +636,8 @@
       <c r="C12" t="s">
         <v>41</v>
       </c>
-      <c r="E12" t="s">
-        <v>54</v>
-      </c>
-      <c r="I12" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -794,14 +647,8 @@
       <c r="C13" t="s">
         <v>42</v>
       </c>
-      <c r="E13" t="s">
-        <v>55</v>
-      </c>
-      <c r="I13" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -811,15 +658,8 @@
       <c r="C14" t="s">
         <v>44</v>
       </c>
-      <c r="E14" t="s">
-        <v>56</v>
-      </c>
-      <c r="I14" t="s">
-        <v>70</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>